--- a/lab1/Dohoyan_fb-33_Tereshchenko_fb-33_cp1/results_spaces.xlsx
+++ b/lab1/Dohoyan_fb-33_Tereshchenko_fb-33_cp1/results_spaces.xlsx
@@ -24,22 +24,88 @@
     <t>Частота</t>
   </si>
   <si>
-    <t>с</t>
+    <t>п</t>
+  </si>
+  <si>
+    <t>р</t>
   </si>
   <si>
     <t>о</t>
   </si>
   <si>
-    <t>т</t>
+    <t>с</t>
+  </si>
+  <si>
+    <t>н</t>
+  </si>
+  <si>
+    <t>у</t>
   </si>
   <si>
     <t>в</t>
   </si>
   <si>
+    <t>ш</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>ь</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>д</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>ж</t>
+  </si>
+  <si>
+    <t>ы</t>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
     <t>е</t>
   </si>
   <si>
-    <t>у</t>
+    <t>б</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>й</t>
+  </si>
+  <si>
+    <t>г</t>
+  </si>
+  <si>
+    <t>з</t>
+  </si>
+  <si>
+    <t>ч</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>ц</t>
+  </si>
+  <si>
+    <t>х</t>
   </si>
   <si>
     <t>ю</t>
@@ -48,76 +114,10 @@
     <t>щ</t>
   </si>
   <si>
-    <t>и</t>
-  </si>
-  <si>
-    <t>й</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>з</t>
-  </si>
-  <si>
-    <t>н</t>
-  </si>
-  <si>
-    <t>а</t>
-  </si>
-  <si>
-    <t>ч</t>
-  </si>
-  <si>
-    <t>п</t>
-  </si>
-  <si>
-    <t>р</t>
-  </si>
-  <si>
-    <t>к</t>
-  </si>
-  <si>
-    <t>л</t>
-  </si>
-  <si>
-    <t>ы</t>
-  </si>
-  <si>
-    <t>х</t>
-  </si>
-  <si>
-    <t>б</t>
-  </si>
-  <si>
-    <t>я</t>
-  </si>
-  <si>
-    <t>м</t>
-  </si>
-  <si>
-    <t>ж</t>
+    <t>э</t>
   </si>
   <si>
     <t>ф</t>
-  </si>
-  <si>
-    <t>д</t>
-  </si>
-  <si>
-    <t>ь</t>
-  </si>
-  <si>
-    <t>ц</t>
-  </si>
-  <si>
-    <t>ш</t>
-  </si>
-  <si>
-    <t>г</t>
-  </si>
-  <si>
-    <t>э</t>
   </si>
   <si>
     <t>ё</t>
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.04716571921842457</v>
+        <v>0.02751106013436015</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.08320506491002104</v>
+        <v>0.03476978535146649</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.05616694700923498</v>
+        <v>0.1123381943306571</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.04606561435090879</v>
+        <v>0.04153694904145502</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.0662254761228105</v>
+        <v>0.06011797476650827</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -540,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.01236914908446584</v>
+        <v>0.02290676716368999</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -548,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.003382485252355416</v>
+        <v>0.03650663608061609</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.00224754844509169</v>
+        <v>0.004882844502703589</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -564,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.08311686295789419</v>
+        <v>0.04540389972144847</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -572,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02130442996116285</v>
+        <v>0.01625430116336228</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -580,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.1168856804750216</v>
+        <v>0.1621006062592168</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -588,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.02473175256951596</v>
+        <v>0.02685564476486973</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.07300365471205662</v>
+        <v>0.06001966246108471</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -604,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.08769237721232787</v>
+        <v>0.009519908241848271</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.01009850402429296</v>
+        <v>0.0214976241192856</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -620,7 +620,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.02471723536509752</v>
+        <v>0.04641979354415861</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -628,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.04608541478914135</v>
+        <v>0.02436506636080616</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -636,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.02358021799230523</v>
+        <v>0.04020973291823694</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -644,7 +644,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.02247740137646008</v>
+        <v>0.06791741766344421</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -652,7 +652,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.02244876437901629</v>
+        <v>0.01805669342946092</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -660,7 +660,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.009014272235360304</v>
+        <v>0.02644601015893823</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -668,7 +668,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.01125275034983307</v>
+        <v>0.009274127478289367</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -676,7 +676,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.02247684032508158</v>
+        <v>0.01666393576929379</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -684,7 +684,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01686064589497057</v>
+        <v>0.01690971653285269</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -692,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.009020186651975225</v>
+        <v>0.01137145666065869</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -700,7 +700,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.005629799926039402</v>
+        <v>0.01712272652793708</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -708,7 +708,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.0179788212923019</v>
+        <v>0.001065049975421924</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -716,7 +716,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.006737151707194018</v>
+        <v>0.007422579059478945</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -724,7 +724,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.008977102581535317</v>
+        <v>0.007553662133377027</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.007855397235947656</v>
+        <v>0.003391774537112895</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -740,7 +740,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.0101150784170992</v>
+        <v>0.00316237915779125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -748,7 +748,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.001111653175056376</v>
+        <v>0.0004260199901687694</v>
       </c>
     </row>
   </sheetData>
@@ -766,97 +766,97 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>34</v>
@@ -870,64 +870,64 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.00112</v>
+        <v>0.000836</v>
       </c>
       <c r="D2">
-        <v>0.00562</v>
+        <v>0.003818</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.006741</v>
+        <v>0.001065</v>
       </c>
       <c r="G2">
-        <v>0.003379</v>
+        <v>0.000623</v>
       </c>
       <c r="H2">
-        <v>0.004509</v>
+        <v>0.001671</v>
       </c>
       <c r="I2">
-        <v>0.006755</v>
+        <v>0.004637</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="L2">
-        <v>0.007874000000000001</v>
+        <v>0.00508</v>
       </c>
       <c r="M2">
-        <v>0.004494</v>
+        <v>0.007406</v>
       </c>
       <c r="N2">
-        <v>0.003369</v>
+        <v>0.001901</v>
       </c>
       <c r="O2">
-        <v>0.011266</v>
+        <v>0.002736</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.002254</v>
+        <v>0.000426</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="S2">
-        <v>0.002256</v>
+        <v>0.003179</v>
       </c>
       <c r="T2">
-        <v>0.00112</v>
+        <v>0.00485</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -936,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="X2">
-        <v>0.006732</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.003368</v>
+        <v>0.000606</v>
       </c>
       <c r="Z2">
-        <v>0.002227</v>
+        <v>0.000426</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
       <c r="AF2">
-        <v>0.003368</v>
+        <v>0.001491</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -972,15 +972,15 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.011241</v>
+        <v>0.015239</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001122</v>
+        <v>0.001704</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1019,25 +1019,25 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="P3">
-        <v>0.002244</v>
+        <v>0.003326</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.004513</v>
+        <v>0.001491</v>
       </c>
       <c r="S3">
-        <v>0.001121</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002253</v>
+        <v>0.000836</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.008389000000000001</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.001032</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -1079,72 +1079,72 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.005629</v>
+        <v>0.004244</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="G4">
-        <v>0.005607</v>
+        <v>0.003769</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="J4">
-        <v>0.005607</v>
+        <v>0.002966</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.00113</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.004505</v>
+        <v>0.000426</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.006722</v>
+        <v>0.001065</v>
       </c>
       <c r="P4">
-        <v>0.002252</v>
+        <v>0.007357</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000819</v>
       </c>
       <c r="S4">
-        <v>0.001118</v>
+        <v>0.003572</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="U4">
-        <v>0.002244</v>
+        <v>0.001278</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001128</v>
+        <v>0.000426</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.005624</v>
+        <v>0.003818</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1186,15 +1186,15 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.004499</v>
+        <v>0.005063</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>0.003371</v>
+        <v>0.000213</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1218,31 +1218,31 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="P5">
-        <v>0.004496</v>
+        <v>0.010094</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.002248</v>
+        <v>0.001458</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1293,30 +1293,30 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.001065</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.005626</v>
+        <v>0.005293</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="E6">
-        <v>0.00113</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.004489</v>
+        <v>0.005063</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1325,40 +1325,40 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.002736</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.002247</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="N6">
-        <v>0.00112</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.001118</v>
+        <v>0.002327</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.00485</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001121</v>
+        <v>0.000213</v>
       </c>
       <c r="S6">
-        <v>0.001129</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.00213</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.001065</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.00041</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1400,90 +1400,90 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.001704</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0.002245</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.001126</v>
+        <v>0.001049</v>
       </c>
       <c r="D7">
-        <v>0.001118</v>
+        <v>0.001049</v>
       </c>
       <c r="E7">
-        <v>0.002243</v>
+        <v>0.004227</v>
       </c>
       <c r="F7">
-        <v>0.002247</v>
+        <v>0.001917</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002343</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="K7">
-        <v>0.005593</v>
+        <v>0.001032</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="M7">
-        <v>0.002248</v>
+        <v>0.006931</v>
       </c>
       <c r="N7">
-        <v>0.00113</v>
+        <v>0.004031</v>
       </c>
       <c r="O7">
-        <v>0.016846</v>
+        <v>0.007374</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.001671</v>
       </c>
       <c r="R7">
-        <v>0.005602</v>
+        <v>0.00508</v>
       </c>
       <c r="S7">
-        <v>0.006726</v>
+        <v>0.003392</v>
       </c>
       <c r="T7">
-        <v>0.007874000000000001</v>
+        <v>0.003375</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.001124</v>
+        <v>0.000623</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.001119</v>
+        <v>0.000213</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1507,18 +1507,18 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.008984000000000001</v>
+        <v>0.017041</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="G8">
-        <v>0.005635</v>
+        <v>0.004441</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.001128</v>
+        <v>0.001704</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.002257</v>
+        <v>0.000639</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1614,27 +1614,27 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>0.013485</v>
+        <v>0.004441</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="D9">
-        <v>0.004502</v>
+        <v>0.001688</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.001901</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.001122</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1655,31 +1655,31 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="O9">
-        <v>0.001118</v>
+        <v>0.001278</v>
       </c>
       <c r="P9">
-        <v>0.002261</v>
+        <v>0.000639</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.00112</v>
+        <v>0.000606</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.001262</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.001124</v>
+        <v>0.000426</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.001262</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1732,58 +1732,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.00041</v>
       </c>
       <c r="D10">
-        <v>0.006734</v>
+        <v>0.003162</v>
       </c>
       <c r="E10">
-        <v>0.001125</v>
+        <v>0.000213</v>
       </c>
       <c r="F10">
-        <v>0.00224</v>
+        <v>0.001065</v>
       </c>
       <c r="G10">
-        <v>0.001118</v>
+        <v>0.001704</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.007854999999999999</v>
+        <v>0.001704</v>
       </c>
       <c r="J10">
-        <v>0.006745</v>
+        <v>0.000639</v>
       </c>
       <c r="K10">
-        <v>0.007861</v>
+        <v>0.000852</v>
       </c>
       <c r="L10">
-        <v>0.002247</v>
+        <v>0.001917</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.004457</v>
       </c>
       <c r="N10">
-        <v>0.003366</v>
+        <v>0.001704</v>
       </c>
       <c r="O10">
-        <v>0.003377</v>
+        <v>0.002753</v>
       </c>
       <c r="P10">
-        <v>0.001124</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="R10">
-        <v>0.001126</v>
+        <v>0.000852</v>
       </c>
       <c r="S10">
-        <v>0.00112</v>
+        <v>0.00213</v>
       </c>
       <c r="T10">
-        <v>0.003373</v>
+        <v>0.002704</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1792,16 +1792,16 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.001126</v>
+        <v>0.001065</v>
       </c>
       <c r="X10">
-        <v>0.001122</v>
+        <v>0.000213</v>
       </c>
       <c r="Y10">
-        <v>0.002236</v>
+        <v>0.000623</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="AF10">
-        <v>0.007878</v>
+        <v>0.001032</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1828,12 +1828,12 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.021343</v>
+        <v>0.015157</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.00224</v>
+        <v>0.001049</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1887,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.00041</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.001126</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1935,15 +1935,15 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.017938</v>
+        <v>0.007177</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.006739</v>
+        <v>0.005276</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1958,16 +1958,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.00112</v>
+        <v>0.000639</v>
       </c>
       <c r="H12">
-        <v>0.002261</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.004501</v>
+        <v>0.001688</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1976,31 +1976,31 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="P12">
-        <v>0.002236</v>
+        <v>0.010143</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.001688</v>
       </c>
       <c r="S12">
-        <v>0.001112</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.005612</v>
+        <v>0.000426</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>0.001491</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2042,15 +2042,15 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>0.00467</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.001133</v>
+        <v>0.002769</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2059,40 +2059,40 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.003376</v>
+        <v>0.004588</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="J13">
-        <v>0.005604</v>
+        <v>0.003162</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.00041</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.001113</v>
+        <v>0.000213</v>
       </c>
       <c r="P13">
-        <v>0.003369</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2101,13 +2101,13 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.001704</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>0.001245</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="AC13">
-        <v>0.004501</v>
+        <v>0.004817</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>0.001655</v>
       </c>
       <c r="AF13">
-        <v>0.003381</v>
+        <v>0.001065</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -2149,15 +2149,15 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>0.007996</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00113</v>
+        <v>0.002769</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2172,34 +2172,34 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.003355</v>
+        <v>0.003195</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="J14">
-        <v>0.003368</v>
+        <v>0.003195</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.001122</v>
+        <v>0.000213</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.001688</v>
       </c>
       <c r="P14">
-        <v>0.001129</v>
+        <v>0.002966</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>0.001491</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2235,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.00113</v>
+        <v>0.000426</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -2256,15 +2256,15 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0.005627</v>
+        <v>0.007144</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>0.011232</v>
+        <v>0.010815</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="G15">
-        <v>0.002244</v>
+        <v>0.009880999999999999</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2288,25 +2288,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.019124</v>
+        <v>0.005686</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.010095</v>
+        <v>0.003572</v>
       </c>
       <c r="P15">
-        <v>0.010121</v>
+        <v>0.011552</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.001134</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.002235</v>
+        <v>0.000836</v>
       </c>
       <c r="U15">
-        <v>0.001134</v>
+        <v>0.002556</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2342,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.014571</v>
+        <v>0.003588</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="AF15">
-        <v>0.001113</v>
+        <v>0.001704</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -2363,90 +2363,90 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>0.007406</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="C16">
-        <v>0.009006999999999999</v>
+        <v>0.003834</v>
       </c>
       <c r="D16">
-        <v>0.011248</v>
+        <v>0.007603</v>
       </c>
       <c r="E16">
-        <v>0.002247</v>
+        <v>0.005686</v>
       </c>
       <c r="F16">
-        <v>0.002259</v>
+        <v>0.007161</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.003195</v>
       </c>
       <c r="H16">
-        <v>0.001128</v>
+        <v>0.002556</v>
       </c>
       <c r="I16">
-        <v>0.003374</v>
+        <v>0.002294</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
       <c r="K16">
-        <v>0.002248</v>
+        <v>0.003572</v>
       </c>
       <c r="L16">
-        <v>0.001124</v>
+        <v>0.003605</v>
       </c>
       <c r="M16">
-        <v>0.006728</v>
+        <v>0.006505</v>
       </c>
       <c r="N16">
-        <v>0.002261</v>
+        <v>0.005276</v>
       </c>
       <c r="O16">
-        <v>0.001124</v>
+        <v>0.008045</v>
       </c>
       <c r="P16">
-        <v>0.003374</v>
+        <v>0.000213</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.001688</v>
       </c>
       <c r="R16">
-        <v>0.00787</v>
+        <v>0.005899</v>
       </c>
       <c r="S16">
-        <v>0.012351</v>
+        <v>0.005473</v>
       </c>
       <c r="T16">
-        <v>0.005634</v>
+        <v>0.00698</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="X16">
-        <v>0.001123</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>0.001704</v>
       </c>
       <c r="Z16">
-        <v>0.001131</v>
+        <v>0.001491</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="AF16">
-        <v>0.002243</v>
+        <v>0.000852</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -2470,15 +2470,15 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0.006731</v>
+        <v>0.025955</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.00213</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.001112</v>
+        <v>0.001704</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.001491</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="M17">
-        <v>0.001133</v>
+        <v>0.001491</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.015716</v>
+        <v>0.013125</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0.006756</v>
+        <v>0.005456</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>0.020231</v>
+        <v>0.010929</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2594,43 +2594,43 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.003371</v>
+        <v>0.000426</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="G18">
-        <v>0.006747</v>
+        <v>0.005047</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.001112</v>
+        <v>0.003359</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.001124</v>
+        <v>0.000639</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.002253</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.001491</v>
       </c>
       <c r="P18">
-        <v>0.007878</v>
+        <v>0.005489</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2639,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="U18">
-        <v>0.001125</v>
+        <v>0.001278</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2657,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.00041</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.002247</v>
+        <v>0.000639</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -2684,30 +2684,30 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>0.001032</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.001688</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.00231</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="G19">
-        <v>0.001118</v>
+        <v>0.003801</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2716,73 +2716,73 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.001123</v>
+        <v>0.000852</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="M19">
-        <v>0.003369</v>
+        <v>0.002917</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="O19">
-        <v>0.001123</v>
+        <v>0.001049</v>
       </c>
       <c r="P19">
-        <v>0.007875</v>
+        <v>0.003375</v>
       </c>
       <c r="Q19">
-        <v>0.002233</v>
+        <v>0.004473</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="S19">
-        <v>0.001123</v>
+        <v>0.001032</v>
       </c>
       <c r="T19">
-        <v>0.021328</v>
+        <v>0.0078</v>
       </c>
       <c r="U19">
-        <v>0.001125</v>
+        <v>0.000639</v>
       </c>
       <c r="V19">
-        <v>0.002243</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.00041</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>0.00041</v>
       </c>
       <c r="Z19">
-        <v>0.002243</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>0.001229</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>0.002114</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AF19">
-        <v>0.001128</v>
+        <v>0.003408</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -2791,30 +2791,30 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0.001134</v>
+        <v>0.001278</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>0.005637</v>
+        <v>0.003752</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.006727</v>
+        <v>0.001868</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="G20">
-        <v>0.002242</v>
+        <v>0.004195</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2823,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.012344</v>
+        <v>0.003375</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.00112</v>
+        <v>0.000213</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2838,37 +2838,37 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.002254</v>
+        <v>0.001884</v>
       </c>
       <c r="P20">
-        <v>0.005612</v>
+        <v>0.013338</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0.003371</v>
+        <v>0.002966</v>
       </c>
       <c r="S20">
-        <v>0.001122</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0.001125</v>
+        <v>0.001491</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>0.001065</v>
       </c>
       <c r="AC20">
-        <v>0.002236</v>
+        <v>0.006554</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>0.000836</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0.012377</v>
+        <v>0.004244</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2909,22 +2909,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
       <c r="G21">
-        <v>0.001121</v>
+        <v>0.000213</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001458</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2933,55 +2933,55 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="L21">
-        <v>0.001125</v>
+        <v>0.000852</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.001065</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.001917</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="R21">
-        <v>0.001125</v>
+        <v>0.000639</v>
       </c>
       <c r="S21">
-        <v>0.002241</v>
+        <v>0.000426</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.00225</v>
+        <v>0.000836</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AA21">
-        <v>0.001125</v>
+        <v>0.000213</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0.003382</v>
+        <v>0.002769</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -3005,12 +3005,12 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>0.005719</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002243</v>
+        <v>0.000213</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.001134</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.002253</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3117,10 +3117,10 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.003588</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3171,13 +3171,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3219,12 +3219,12 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0.009013999999999999</v>
+        <v>0.00213</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.001123</v>
+        <v>0.000213</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.007854999999999999</v>
+        <v>0.000213</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.002247</v>
+        <v>0.001868</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.005606</v>
+        <v>0.003605</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.000836</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.001032</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0.00112</v>
+        <v>0.002982</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.000836</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3433,15 +3433,15 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0.001126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>0.001128</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.005602</v>
+        <v>0.002114</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3465,25 +3465,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.001126</v>
+        <v>0.000426</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.001125</v>
+        <v>0.001262</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.001122</v>
+        <v>0.001065</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3652,64 +3652,64 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="D28">
-        <v>0.001124</v>
+        <v>0.000639</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.003363</v>
+        <v>0.000836</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.005602</v>
+        <v>0.002556</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.004408</v>
       </c>
       <c r="N28">
-        <v>0.001115</v>
+        <v>0.002097</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.00041</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0.001113</v>
+        <v>0.000639</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="S28">
-        <v>0.002243</v>
+        <v>0.000426</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0.007887999999999999</v>
+        <v>0.000426</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -3754,12 +3754,12 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>0.006292</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3777,13 +3777,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3792,16 +3792,16 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="O29">
-        <v>0.002245</v>
+        <v>0.002278</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -3861,12 +3861,12 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0.004492</v>
+        <v>0.009733</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.001112</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>0.003162</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3973,13 +3973,13 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.000393</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="T31">
-        <v>0.001126</v>
+        <v>0.000213</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.001122</v>
+        <v>0.000852</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -4075,12 +4075,12 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0.001134</v>
+        <v>0.00485</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4089,55 +4089,55 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="F32">
-        <v>0.002247</v>
+        <v>0.000213</v>
       </c>
       <c r="G32">
-        <v>0.003381</v>
+        <v>0.000197</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.000639</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="O32">
-        <v>0.002243</v>
+        <v>0.000852</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="S32">
-        <v>0.001128</v>
+        <v>0.000213</v>
       </c>
       <c r="T32">
-        <v>0.002232</v>
+        <v>0.002294</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0.011246</v>
+        <v>0.009306999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -4404,79 +4404,79 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>0.007860000000000001</v>
+        <v>0.001491</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0107</v>
       </c>
       <c r="D35">
-        <v>0.008992</v>
+        <v>0.012469</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.003572</v>
       </c>
       <c r="F35">
-        <v>0.002245</v>
+        <v>0.008012999999999999</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.004014</v>
       </c>
       <c r="H35">
-        <v>0.001122</v>
+        <v>0.001065</v>
       </c>
       <c r="I35">
-        <v>0.006748</v>
+        <v>0.004227</v>
       </c>
       <c r="J35">
-        <v>0.010101</v>
+        <v>0.008406</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0.003356</v>
+        <v>0.008241999999999999</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.001852</v>
       </c>
       <c r="N35">
-        <v>0.002248</v>
+        <v>0.005522</v>
       </c>
       <c r="O35">
-        <v>0.007861</v>
+        <v>0.016468</v>
       </c>
       <c r="P35">
-        <v>0.011266</v>
+        <v>0.012748</v>
       </c>
       <c r="Q35">
-        <v>0.019117</v>
+        <v>0.016681</v>
       </c>
       <c r="R35">
-        <v>0.011235</v>
+        <v>0.005047</v>
       </c>
       <c r="S35">
-        <v>0.011241</v>
+        <v>0.017451</v>
       </c>
       <c r="T35">
-        <v>0.004512</v>
+        <v>0.00698</v>
       </c>
       <c r="U35">
-        <v>0.003363</v>
+        <v>0.003392</v>
       </c>
       <c r="V35">
-        <v>0.003387</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>0.002327</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>0.000213</v>
       </c>
       <c r="Y35">
-        <v>0.00112</v>
+        <v>0.005932</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -4488,13 +4488,13 @@
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>0.001112</v>
+        <v>0.003162</v>
       </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>0.001704</v>
       </c>
       <c r="AG35">
         <v>0</v>
@@ -4521,97 +4521,97 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>34</v>
@@ -4625,64 +4625,64 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.001118</v>
+        <v>0.000852</v>
       </c>
       <c r="D2">
-        <v>0.005632</v>
+        <v>0.003834</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.006727</v>
+        <v>0.001114</v>
       </c>
       <c r="G2">
-        <v>0.003393</v>
+        <v>0.000623</v>
       </c>
       <c r="H2">
-        <v>0.004529</v>
+        <v>0.001671</v>
       </c>
       <c r="I2">
-        <v>0.006767</v>
+        <v>0.004785</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="L2">
-        <v>0.007894</v>
+        <v>0.005112</v>
       </c>
       <c r="M2">
-        <v>0.004504</v>
+        <v>0.007373</v>
       </c>
       <c r="N2">
-        <v>0.003357</v>
+        <v>0.001868</v>
       </c>
       <c r="O2">
-        <v>0.011271</v>
+        <v>0.002818</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.002247</v>
+        <v>0.000426</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000819</v>
       </c>
       <c r="S2">
-        <v>0.002259</v>
+        <v>0.003277</v>
       </c>
       <c r="T2">
-        <v>0.00112</v>
+        <v>0.00485</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -4691,19 +4691,19 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.000885</v>
       </c>
       <c r="X2">
-        <v>0.006724</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.003359</v>
+        <v>0.000623</v>
       </c>
       <c r="Z2">
-        <v>0.002221</v>
+        <v>0.000426</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.000459</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -4715,10 +4715,10 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.001311</v>
       </c>
       <c r="AF2">
-        <v>0.003367</v>
+        <v>0.001507</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -4727,15 +4727,15 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.011247</v>
+        <v>0.015238</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.000459</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001128</v>
+        <v>0.001737</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4774,25 +4774,25 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="P3">
-        <v>0.002232</v>
+        <v>0.003212</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.004535</v>
+        <v>0.00154</v>
       </c>
       <c r="S3">
-        <v>0.001116</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.00226</v>
+        <v>0.000852</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.008389000000000001</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.001016</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -4834,72 +4834,72 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.005621</v>
+        <v>0.004326</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="G4">
-        <v>0.00561</v>
+        <v>0.003834</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="J4">
-        <v>0.005592</v>
+        <v>0.003015</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001133</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.004494</v>
+        <v>0.000459</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.006712</v>
+        <v>0.001049</v>
       </c>
       <c r="P4">
-        <v>0.002245</v>
+        <v>0.00721</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000819</v>
       </c>
       <c r="S4">
-        <v>0.001116</v>
+        <v>0.003572</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="U4">
-        <v>0.002249</v>
+        <v>0.001311</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -4914,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001133</v>
+        <v>0.000426</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.005629</v>
+        <v>0.003736</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -4941,15 +4941,15 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.004493</v>
+        <v>0.005079</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>0.003375</v>
+        <v>0.000197</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.001344</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4973,31 +4973,31 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="P5">
-        <v>0.00451</v>
+        <v>0.01029</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.00224</v>
+        <v>0.001442</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -5048,30 +5048,30 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.005638</v>
+        <v>0.005309</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="E6">
-        <v>0.001126</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.004476</v>
+        <v>0.004981</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5080,40 +5080,40 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.002786</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.00226</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="N6">
-        <v>0.00112</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00112</v>
+        <v>0.002327</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.004948</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001125</v>
+        <v>0.000197</v>
       </c>
       <c r="S6">
-        <v>0.001119</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.002097</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -5134,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.001114</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -5155,90 +5155,90 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.001704</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0.002244</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.001123</v>
+        <v>0.001081</v>
       </c>
       <c r="D7">
-        <v>0.00112</v>
+        <v>0.001081</v>
       </c>
       <c r="E7">
-        <v>0.002246</v>
+        <v>0.004096</v>
       </c>
       <c r="F7">
-        <v>0.002255</v>
+        <v>0.001802</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.001245</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001311</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002327</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="K7">
-        <v>0.00559</v>
+        <v>0.001049</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.001081</v>
       </c>
       <c r="M7">
-        <v>0.002246</v>
+        <v>0.006947</v>
       </c>
       <c r="N7">
-        <v>0.001131</v>
+        <v>0.004096</v>
       </c>
       <c r="O7">
-        <v>0.01682</v>
+        <v>0.007537</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.001639</v>
       </c>
       <c r="R7">
-        <v>0.005604</v>
+        <v>0.005079</v>
       </c>
       <c r="S7">
-        <v>0.00671</v>
+        <v>0.003375</v>
       </c>
       <c r="T7">
-        <v>0.007867000000000001</v>
+        <v>0.003244</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.000459</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.001113</v>
+        <v>0.000623</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.000393</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.001124</v>
+        <v>0.000229</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -5262,18 +5262,18 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.009006</v>
+        <v>0.016811</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.000819</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="G8">
-        <v>0.005611</v>
+        <v>0.004457</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5294,13 +5294,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.001133</v>
+        <v>0.001704</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.002251</v>
+        <v>0.000688</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.000393</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -5369,27 +5369,27 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>0.013495</v>
+        <v>0.004391</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="D9">
-        <v>0.004519</v>
+        <v>0.001639</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.001933</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.001129</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -5410,31 +5410,31 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="O9">
-        <v>0.001118</v>
+        <v>0.001311</v>
       </c>
       <c r="P9">
-        <v>0.002253</v>
+        <v>0.000655</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.001118</v>
+        <v>0.000623</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.001245</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.000393</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -5455,10 +5455,10 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.001112</v>
+        <v>0.000426</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.001213</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -5487,58 +5487,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="D10">
-        <v>0.006731</v>
+        <v>0.003146</v>
       </c>
       <c r="E10">
-        <v>0.001122</v>
+        <v>0.000229</v>
       </c>
       <c r="F10">
-        <v>0.002245</v>
+        <v>0.001049</v>
       </c>
       <c r="G10">
-        <v>0.001118</v>
+        <v>0.00177</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.007856999999999999</v>
+        <v>0.001704</v>
       </c>
       <c r="J10">
-        <v>0.006727</v>
+        <v>0.000655</v>
       </c>
       <c r="K10">
-        <v>0.007851</v>
+        <v>0.000852</v>
       </c>
       <c r="L10">
-        <v>0.002247</v>
+        <v>0.001868</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.004457</v>
       </c>
       <c r="N10">
-        <v>0.003369</v>
+        <v>0.001704</v>
       </c>
       <c r="O10">
-        <v>0.003381</v>
+        <v>0.002687</v>
       </c>
       <c r="P10">
-        <v>0.001123</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="R10">
-        <v>0.00112</v>
+        <v>0.000819</v>
       </c>
       <c r="S10">
-        <v>0.00112</v>
+        <v>0.002163</v>
       </c>
       <c r="T10">
-        <v>0.003371</v>
+        <v>0.002654</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -5547,16 +5547,16 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.001128</v>
+        <v>0.001049</v>
       </c>
       <c r="X10">
-        <v>0.001115</v>
+        <v>0.000197</v>
       </c>
       <c r="Y10">
-        <v>0.002234</v>
+        <v>0.000623</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -5571,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.00059</v>
       </c>
       <c r="AF10">
-        <v>0.007903</v>
+        <v>0.001049</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -5583,12 +5583,12 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.021364</v>
+        <v>0.014878</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.002236</v>
+        <v>0.001049</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -5642,10 +5642,10 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.000393</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -5663,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.001128</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -5690,15 +5690,15 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.017947</v>
+        <v>0.007177</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.006718</v>
+        <v>0.005211</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -5713,16 +5713,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.001118</v>
+        <v>0.000655</v>
       </c>
       <c r="H12">
-        <v>0.002264</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.004483</v>
+        <v>0.001671</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -5731,31 +5731,31 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="P12">
-        <v>0.002238</v>
+        <v>0.010323</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.001573</v>
       </c>
       <c r="S12">
-        <v>0.001114</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.0056</v>
+        <v>0.000426</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>0.001442</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -5797,15 +5797,15 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>0.004686</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.001132</v>
+        <v>0.002818</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -5814,40 +5814,40 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.003377</v>
+        <v>0.004522</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="J13">
-        <v>0.005594</v>
+        <v>0.003277</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.000393</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.001111</v>
+        <v>0.000197</v>
       </c>
       <c r="P13">
-        <v>0.003362</v>
+        <v>0.00852</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -5856,13 +5856,13 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.001704</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -5883,19 +5883,19 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.000688</v>
       </c>
       <c r="AC13">
-        <v>0.004506</v>
+        <v>0.004916</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>0.001606</v>
       </c>
       <c r="AF13">
-        <v>0.003384</v>
+        <v>0.001114</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -5904,15 +5904,15 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>0.007832</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.001131</v>
+        <v>0.002654</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -5927,34 +5927,34 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.003373</v>
+        <v>0.003212</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="J14">
-        <v>0.003369</v>
+        <v>0.003212</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.001128</v>
+        <v>0.000229</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.001671</v>
       </c>
       <c r="P14">
-        <v>0.001126</v>
+        <v>0.003048</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -5963,13 +5963,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>0.00154</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -5990,10 +5990,10 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.001128</v>
+        <v>0.000426</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -6011,15 +6011,15 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0.005613</v>
+        <v>0.007078</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>0.011244</v>
+        <v>0.010814</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6031,10 +6031,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="G15">
-        <v>0.002243</v>
+        <v>0.009897</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -6043,25 +6043,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.019144</v>
+        <v>0.005637</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0101</v>
+        <v>0.003506</v>
       </c>
       <c r="P15">
-        <v>0.010134</v>
+        <v>0.01147</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -6070,13 +6070,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.001127</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.002239</v>
+        <v>0.000885</v>
       </c>
       <c r="U15">
-        <v>0.001135</v>
+        <v>0.002654</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -6085,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -6097,19 +6097,19 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.014584</v>
+        <v>0.003605</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>0.000819</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>0.000655</v>
       </c>
       <c r="AF15">
-        <v>0.001115</v>
+        <v>0.001639</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -6118,90 +6118,90 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>0.007505</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="C16">
-        <v>0.008992999999999999</v>
+        <v>0.003703</v>
       </c>
       <c r="D16">
-        <v>0.011247</v>
+        <v>0.00757</v>
       </c>
       <c r="E16">
-        <v>0.002247</v>
+        <v>0.005604</v>
       </c>
       <c r="F16">
-        <v>0.002265</v>
+        <v>0.007144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.003179</v>
       </c>
       <c r="H16">
-        <v>0.001123</v>
+        <v>0.002556</v>
       </c>
       <c r="I16">
-        <v>0.00336</v>
+        <v>0.002294</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
       <c r="K16">
-        <v>0.002261</v>
+        <v>0.003572</v>
       </c>
       <c r="L16">
-        <v>0.001136</v>
+        <v>0.003572</v>
       </c>
       <c r="M16">
-        <v>0.006735</v>
+        <v>0.006423</v>
       </c>
       <c r="N16">
-        <v>0.002268</v>
+        <v>0.005211</v>
       </c>
       <c r="O16">
-        <v>0.001125</v>
+        <v>0.007832</v>
       </c>
       <c r="P16">
-        <v>0.003388</v>
+        <v>0.000197</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.001737</v>
       </c>
       <c r="R16">
-        <v>0.007865</v>
+        <v>0.005932</v>
       </c>
       <c r="S16">
-        <v>0.012376</v>
+        <v>0.005505</v>
       </c>
       <c r="T16">
-        <v>0.005639</v>
+        <v>0.007144</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="X16">
-        <v>0.001112</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>0.001671</v>
       </c>
       <c r="Z16">
-        <v>0.001128</v>
+        <v>0.001442</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>0.000655</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -6213,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="AF16">
-        <v>0.002237</v>
+        <v>0.000819</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -6225,15 +6225,15 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0.006717</v>
+        <v>0.02602</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002196</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.001114</v>
+        <v>0.001737</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -6257,16 +6257,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.00154</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="M17">
-        <v>0.001135</v>
+        <v>0.001442</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -6275,13 +6275,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.015708</v>
+        <v>0.013043</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0.006789</v>
+        <v>0.005407</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>0.0202</v>
+        <v>0.010683</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -6349,43 +6349,43 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.003366</v>
+        <v>0.000426</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="G18">
-        <v>0.00675</v>
+        <v>0.005047</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.001114</v>
+        <v>0.003375</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.001126</v>
+        <v>0.00059</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.002248</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.00154</v>
       </c>
       <c r="P18">
-        <v>0.007861</v>
+        <v>0.005637</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -6394,16 +6394,16 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.001016</v>
       </c>
       <c r="U18">
-        <v>0.001128</v>
+        <v>0.001344</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -6412,16 +6412,16 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.001311</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.00226</v>
+        <v>0.000623</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -6439,30 +6439,30 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>0.001016</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.001671</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.002261</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="G19">
-        <v>0.00112</v>
+        <v>0.003801</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -6471,73 +6471,73 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.001111</v>
+        <v>0.000885</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="M19">
-        <v>0.003376</v>
+        <v>0.002851</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="O19">
-        <v>0.001121</v>
+        <v>0.001049</v>
       </c>
       <c r="P19">
-        <v>0.007854999999999999</v>
+        <v>0.00331</v>
       </c>
       <c r="Q19">
-        <v>0.002237</v>
+        <v>0.004457</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>0.000885</v>
       </c>
       <c r="S19">
-        <v>0.001135</v>
+        <v>0.0009829999999999999</v>
       </c>
       <c r="T19">
-        <v>0.021321</v>
+        <v>0.007734</v>
       </c>
       <c r="U19">
-        <v>0.001124</v>
+        <v>0.000623</v>
       </c>
       <c r="V19">
-        <v>0.002247</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>0.000393</v>
       </c>
       <c r="Z19">
-        <v>0.002246</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>0.001278</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>0.002097</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="AF19">
-        <v>0.001133</v>
+        <v>0.003474</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -6546,30 +6546,30 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0.001138</v>
+        <v>0.001245</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>0.005629</v>
+        <v>0.003736</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.006721</v>
+        <v>0.001901</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="G20">
-        <v>0.002246</v>
+        <v>0.004129</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -6578,13 +6578,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.012358</v>
+        <v>0.003441</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.001121</v>
+        <v>0.000229</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -6593,37 +6593,37 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.002256</v>
+        <v>0.00177</v>
       </c>
       <c r="P20">
-        <v>0.005623</v>
+        <v>0.01337</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0.003364</v>
+        <v>0.003048</v>
       </c>
       <c r="S20">
-        <v>0.001123</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0.001121</v>
+        <v>0.001442</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -6632,10 +6632,10 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>0.001081</v>
       </c>
       <c r="AC20">
-        <v>0.002249</v>
+        <v>0.006652</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>0.000819</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0.012383</v>
+        <v>0.004293</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -6664,22 +6664,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.0009829999999999999</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.001245</v>
       </c>
       <c r="G21">
-        <v>0.001116</v>
+        <v>0.000229</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001442</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -6688,55 +6688,55 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="L21">
-        <v>0.001121</v>
+        <v>0.000852</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.001081</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.001966</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="R21">
-        <v>0.001128</v>
+        <v>0.000688</v>
       </c>
       <c r="S21">
-        <v>0.002229</v>
+        <v>0.000426</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>0.000819</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.002251</v>
+        <v>0.000819</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="AA21">
-        <v>0.001127</v>
+        <v>0.000197</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0.003381</v>
+        <v>0.002687</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -6760,12 +6760,12 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>0.005669</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002239</v>
+        <v>0.000197</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.001127</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.002248</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -6872,10 +6872,10 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.003638</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6926,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>0.000655</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -6974,12 +6974,12 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0.009011999999999999</v>
+        <v>0.002097</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.001133</v>
+        <v>0.000229</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.00787</v>
+        <v>0.000229</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -7086,10 +7086,10 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.002248</v>
+        <v>0.00177</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.005623</v>
+        <v>0.003736</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -7113,13 +7113,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -7143,10 +7143,10 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0.001113</v>
+        <v>0.002917</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.000885</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -7188,15 +7188,15 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0.001128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>0.001123</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.005609</v>
+        <v>0.002097</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -7220,25 +7220,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.001124</v>
+        <v>0.000393</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.000459</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.000688</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.000655</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -7277,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -7300,10 +7300,10 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.001124</v>
+        <v>0.001278</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.001123</v>
+        <v>0.001016</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -7407,64 +7407,64 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="D28">
-        <v>0.001136</v>
+        <v>0.00059</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.003353</v>
+        <v>0.000852</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.005596</v>
+        <v>0.002556</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.004457</v>
       </c>
       <c r="N28">
-        <v>0.001114</v>
+        <v>0.002097</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.000393</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0.001115</v>
+        <v>0.000655</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>0.00059</v>
       </c>
       <c r="S28">
-        <v>0.002241</v>
+        <v>0.000393</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>0.000852</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -7473,16 +7473,16 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0.007889</v>
+        <v>0.000426</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -7509,12 +7509,12 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>0.006226</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7532,13 +7532,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -7547,16 +7547,16 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.001049</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="O29">
-        <v>0.002238</v>
+        <v>0.002228</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>0.001213</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.000655</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -7616,12 +7616,12 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0.004481</v>
+        <v>0.009634999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.00111</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>0.003212</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -7728,13 +7728,13 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.000393</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -7782,10 +7782,10 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>0.000426</v>
       </c>
       <c r="T31">
-        <v>0.001128</v>
+        <v>0.000197</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.001122</v>
+        <v>0.000885</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -7830,12 +7830,12 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0.001135</v>
+        <v>0.004948</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7844,55 +7844,55 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.000459</v>
       </c>
       <c r="F32">
-        <v>0.002233</v>
+        <v>0.000197</v>
       </c>
       <c r="G32">
-        <v>0.003379</v>
+        <v>0.000197</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.000623</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>0.001016</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>0.000459</v>
       </c>
       <c r="O32">
-        <v>0.002249</v>
+        <v>0.000885</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="S32">
-        <v>0.001123</v>
+        <v>0.000197</v>
       </c>
       <c r="T32">
-        <v>0.002225</v>
+        <v>0.002327</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>0.000229</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0.011221</v>
+        <v>0.009240999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -8159,79 +8159,79 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>0.007849999999999999</v>
+        <v>0.001442</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.010716</v>
       </c>
       <c r="D35">
-        <v>0.009001</v>
+        <v>0.012682</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.003539</v>
       </c>
       <c r="F35">
-        <v>0.002249</v>
+        <v>0.008062</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.004129</v>
       </c>
       <c r="H35">
-        <v>0.001129</v>
+        <v>0.001049</v>
       </c>
       <c r="I35">
-        <v>0.006736</v>
+        <v>0.004227</v>
       </c>
       <c r="J35">
-        <v>0.01011</v>
+        <v>0.008553</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0.00335</v>
+        <v>0.008225</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.001868</v>
       </c>
       <c r="N35">
-        <v>0.002245</v>
+        <v>0.005473</v>
       </c>
       <c r="O35">
-        <v>0.007830999999999999</v>
+        <v>0.016549</v>
       </c>
       <c r="P35">
-        <v>0.011282</v>
+        <v>0.012781</v>
       </c>
       <c r="Q35">
-        <v>0.019089</v>
+        <v>0.016779</v>
       </c>
       <c r="R35">
-        <v>0.011229</v>
+        <v>0.005145</v>
       </c>
       <c r="S35">
-        <v>0.011262</v>
+        <v>0.017729</v>
       </c>
       <c r="T35">
-        <v>0.004518</v>
+        <v>0.006915</v>
       </c>
       <c r="U35">
-        <v>0.003369</v>
+        <v>0.003375</v>
       </c>
       <c r="V35">
-        <v>0.003398</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>0.002294</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>0.000197</v>
       </c>
       <c r="Y35">
-        <v>0.001127</v>
+        <v>0.005899</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.000459</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -8243,13 +8243,13 @@
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>0.001114</v>
+        <v>0.003113</v>
       </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>0.001737</v>
       </c>
       <c r="AG35">
         <v>0</v>
